--- a/generated_files/Simplified models coefficients - analytical.xlsx
+++ b/generated_files/Simplified models coefficients - analytical.xlsx
@@ -492,7 +492,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.00459109288241218</v>
+        <v>0.004901990615312879</v>
       </c>
     </row>
   </sheetData>
@@ -527,16 +527,16 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>1.801554853234706e-12</v>
+        <v>1.888716660614536e-12</v>
       </c>
       <c r="C2">
-        <v>1.181402856974123e-09</v>
+        <v>1.275288575208966e-09</v>
       </c>
       <c r="D2">
-        <v>8.693688296462969e-15</v>
+        <v>9.114301403721972e-15</v>
       </c>
       <c r="E2">
-        <v>7.268506198538375e-11</v>
+        <v>7.463033791243776e-11</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -544,16 +544,16 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>3.124844828250656e-07</v>
+        <v>3.311150960402586e-07</v>
       </c>
       <c r="C3">
-        <v>0.0001319460799917681</v>
+        <v>0.0001520139119407046</v>
       </c>
       <c r="D3">
-        <v>1.507943366967041e-09</v>
+        <v>1.597848341980173e-09</v>
       </c>
       <c r="E3">
-        <v>2.006215544996118e-05</v>
+        <v>2.04779531999528e-05</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -561,16 +561,16 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>4.871353021229501e-12</v>
+        <v>4.942307295675126e-12</v>
       </c>
       <c r="C4">
-        <v>2.857134222930178e-09</v>
+        <v>2.933562112833032e-09</v>
       </c>
       <c r="D4">
-        <v>2.350748558810886e-14</v>
+        <v>2.384988667804759e-14</v>
       </c>
       <c r="E4">
-        <v>2.296825323752939e-10</v>
+        <v>2.312660888222127e-10</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -578,16 +578,16 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.043449975655573e-12</v>
+        <v>1.083556910082177e-12</v>
       </c>
       <c r="C5">
-        <v>3.489623688981088e-10</v>
+        <v>3.921632668376349e-10</v>
       </c>
       <c r="D5">
-        <v>5.035333131829766e-15</v>
+        <v>5.228875496529637e-15</v>
       </c>
       <c r="E5">
-        <v>6.986768750134939e-11</v>
+        <v>7.076279347027518e-11</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -595,16 +595,16 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>7.985502887334248e-08</v>
+        <v>8.219302300846927e-08</v>
       </c>
       <c r="C6">
-        <v>2.502208307353478e-05</v>
+        <v>2.754043675622849e-05</v>
       </c>
       <c r="D6">
-        <v>3.853530902394595e-10</v>
+        <v>3.966354512584736e-10</v>
       </c>
       <c r="E6">
-        <v>2.514107483387387e-06</v>
+        <v>2.566286801891313e-06</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -612,16 +612,16 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>3.964479330497972e-13</v>
+        <v>4.277407425059453e-13</v>
       </c>
       <c r="C7">
-        <v>4.623746627631535e-10</v>
+        <v>4.960814889487753e-10</v>
       </c>
       <c r="D7">
-        <v>1.913122295179394e-15</v>
+        <v>2.064130703745967e-15</v>
       </c>
       <c r="E7">
-        <v>4.286987307984169e-11</v>
+        <v>4.356826553813024e-11</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -629,16 +629,16 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>6.985253500954188e-08</v>
+        <v>7.208104801007146e-08</v>
       </c>
       <c r="C8">
-        <v>3.239949602962591e-05</v>
+        <v>3.479992289019614e-05</v>
       </c>
       <c r="D8">
-        <v>3.370844717830018e-10</v>
+        <v>3.478385142460627e-10</v>
       </c>
       <c r="E8">
-        <v>4.099330685147033e-06</v>
+        <v>4.149066605309422e-06</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -646,16 +646,16 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>5.440455727677111e-05</v>
+        <v>5.552126093801832e-05</v>
       </c>
       <c r="C9">
-        <v>0.01460456956757358</v>
+        <v>0.01580741893983122</v>
       </c>
       <c r="D9">
-        <v>2.625378083948328e-07</v>
+        <v>2.67926638789295e-07</v>
       </c>
       <c r="E9">
-        <v>0.001156160373266298</v>
+        <v>0.001181082949050137</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -663,16 +663,16 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>9.695591861192543e-10</v>
+        <v>9.919205748422449e-10</v>
       </c>
       <c r="C10">
-        <v>9.46349302931124e-07</v>
+        <v>9.704357130698753e-07</v>
       </c>
       <c r="D10">
-        <v>4.678761423199912e-12</v>
+        <v>4.786669846351541e-12</v>
       </c>
       <c r="E10">
-        <v>1.235788211504026e-07</v>
+        <v>1.240778822929603e-07</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -680,16 +680,16 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>2.568018342908669e-08</v>
+        <v>2.607275002210738e-08</v>
       </c>
       <c r="C11">
-        <v>6.042901625292598e-06</v>
+        <v>6.46575192691772e-06</v>
       </c>
       <c r="D11">
-        <v>1.239237926769847e-10</v>
+        <v>1.258181849510797e-10</v>
       </c>
       <c r="E11">
-        <v>7.70244736364887e-07</v>
+        <v>7.790060317776939e-07</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -697,16 +697,16 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>2.83476890724359e-07</v>
+        <v>2.882635963399341e-07</v>
       </c>
       <c r="C12">
-        <v>7.359883246187485e-05</v>
+        <v>7.875479822493713e-05</v>
       </c>
       <c r="D12">
-        <v>1.367962636709681e-09</v>
+        <v>1.391061642834319e-09</v>
       </c>
       <c r="E12">
-        <v>7.522375646431337e-06</v>
+        <v>7.629205271513404e-06</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -714,16 +714,16 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>1.407893920490356e-06</v>
+        <v>2.070227589197718e-06</v>
       </c>
       <c r="C13">
-        <v>0.001376910290029798</v>
+        <v>0.002090338270323153</v>
       </c>
       <c r="D13">
-        <v>6.794015112696531e-09</v>
+        <v>9.990211139509604e-09</v>
       </c>
       <c r="E13">
-        <v>0.0002855715200484663</v>
+        <v>0.0003003534730637168</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -731,16 +731,16 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.0001091402664399658</v>
+        <v>0.0001171965117768293</v>
       </c>
       <c r="C14">
-        <v>0.07033988824343677</v>
+        <v>0.07901761536342963</v>
       </c>
       <c r="D14">
-        <v>5.266736426694677e-07</v>
+        <v>5.655503305886672e-07</v>
       </c>
       <c r="E14">
-        <v>0.00852469471123736</v>
+        <v>0.008704493875427873</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -748,16 +748,16 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>2.673093282169156e-05</v>
+        <v>2.834367799707585e-05</v>
       </c>
       <c r="C15">
-        <v>0.03080989849160609</v>
+        <v>0.03254705543766866</v>
       </c>
       <c r="D15">
-        <v>1.289943503014737e-07</v>
+        <v>1.367769075914953e-07</v>
       </c>
       <c r="E15">
-        <v>0.003672572910177026</v>
+        <v>0.003708566133128645</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -765,16 +765,16 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>4.257850190048689e-11</v>
+        <v>4.285651945574165e-11</v>
       </c>
       <c r="C16">
-        <v>5.382525830819841e-08</v>
+        <v>5.41247229320031e-08</v>
       </c>
       <c r="D16">
-        <v>2.054693050220238e-13</v>
+        <v>2.06810922770709e-13</v>
       </c>
       <c r="E16">
-        <v>8.561161253865058e-09</v>
+        <v>8.567366045548235e-09</v>
       </c>
     </row>
   </sheetData>
@@ -812,13 +812,13 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0.0005958510264344228</v>
+        <v>0.0005464301518332064</v>
       </c>
       <c r="C2">
-        <v>0.0163945125141303</v>
+        <v>0.01682290957107692</v>
       </c>
       <c r="D2">
-        <v>0.180525125616854</v>
+        <v>0.1209770084279233</v>
       </c>
       <c r="E2">
         <v>189216000</v>
@@ -832,13 +832,13 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.001659111756981019</v>
+        <v>0.001470880226390878</v>
       </c>
       <c r="C3">
-        <v>0.05218622973819889</v>
+        <v>0.05253496737070348</v>
       </c>
       <c r="D3">
-        <v>0.8093132893045383</v>
+        <v>0.3854214682626809</v>
       </c>
       <c r="E3">
         <v>189216000</v>
@@ -852,13 +852,13 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.0001902981255951717</v>
+        <v>0.0001755330892994764</v>
       </c>
       <c r="C4">
-        <v>0.009853035356609533</v>
+        <v>0.01000683835677189</v>
       </c>
       <c r="D4">
-        <v>0.3800397362036287</v>
+        <v>0.1292248594463174</v>
       </c>
       <c r="E4">
         <v>189216000</v>
@@ -872,13 +872,13 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>17813.80906941187</v>
+        <v>15897.37555411554</v>
       </c>
       <c r="C5">
-        <v>263006.0126621321</v>
+        <v>268494.5698219873</v>
       </c>
       <c r="D5">
-        <v>4282918.430730993</v>
+        <v>2045267.642371122</v>
       </c>
       <c r="E5">
         <v>189216000</v>
@@ -892,13 +892,13 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>0.3359429630728538</v>
+        <v>0.3001855257855535</v>
       </c>
       <c r="C6">
-        <v>28.09741003369671</v>
+        <v>28.20731543155558</v>
       </c>
       <c r="D6">
-        <v>254.067755061614</v>
+        <v>121.3263390867791</v>
       </c>
       <c r="E6">
         <v>189216000</v>
@@ -912,13 +912,13 @@
         <v>18</v>
       </c>
       <c r="B7">
-        <v>519.7341729172158</v>
+        <v>649.4434645984869</v>
       </c>
       <c r="C7">
-        <v>66475.84418034455</v>
+        <v>69731.18964552312</v>
       </c>
       <c r="D7">
-        <v>587049.0036348172</v>
+        <v>295801.1293346361</v>
       </c>
       <c r="E7">
         <v>189216000</v>
@@ -932,13 +932,13 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>10795.64677426422</v>
+        <v>9910.125433210746</v>
       </c>
       <c r="C8">
-        <v>840210.0557605595</v>
+        <v>848136.6386005477</v>
       </c>
       <c r="D8">
-        <v>15219337.89047884</v>
+        <v>5851581.655258</v>
       </c>
       <c r="E8">
         <v>189216000</v>
@@ -952,13 +952,13 @@
         <v>21</v>
       </c>
       <c r="B9">
-        <v>0.01487187378020239</v>
+        <v>0.01307908998356739</v>
       </c>
       <c r="C9">
-        <v>1.951823044558985</v>
+        <v>1.953189490552106</v>
       </c>
       <c r="D9">
-        <v>28.04327861400777</v>
+        <v>11.13531392637941</v>
       </c>
       <c r="E9">
         <v>189216000</v>
@@ -1002,13 +1002,13 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>2077.802237677221</v>
+        <v>1815.876926867525</v>
       </c>
       <c r="C2">
-        <v>142205.8413570306</v>
+        <v>144759.9745489098</v>
       </c>
       <c r="D2">
-        <v>23567673.15091255</v>
+        <v>11180980.05596905</v>
       </c>
       <c r="E2">
         <v>189216000</v>
@@ -1022,13 +1022,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>129.5715391501613</v>
+        <v>113.2379030376425</v>
       </c>
       <c r="C3">
-        <v>4616.527129053482</v>
+        <v>4708.095903387306</v>
       </c>
       <c r="D3">
-        <v>1167878.655546761</v>
+        <v>428311.0416143669</v>
       </c>
       <c r="E3">
         <v>189216000</v>
@@ -1042,13 +1042,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.0004745896181478305</v>
+        <v>0.00041476340803681</v>
       </c>
       <c r="C4">
-        <v>0.2511585970750136</v>
+        <v>0.2513557211731482</v>
       </c>
       <c r="D4">
-        <v>4.091085792939135</v>
+        <v>1.381974847338104</v>
       </c>
       <c r="E4">
         <v>189216000</v>
@@ -1062,13 +1062,13 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>37.07414130937365</v>
+        <v>32.4006185797438</v>
       </c>
       <c r="C5">
-        <v>580.3667985308983</v>
+        <v>591.8579531633486</v>
       </c>
       <c r="D5">
-        <v>316518.5059629646</v>
+        <v>104437.3026867526</v>
       </c>
       <c r="E5">
         <v>189216000</v>
@@ -1082,13 +1082,13 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>29.30796820971028</v>
+        <v>25.61344014379068</v>
       </c>
       <c r="C6">
-        <v>945.2763694705825</v>
+        <v>956.2294283789743</v>
       </c>
       <c r="D6">
-        <v>263511.7995945796</v>
+        <v>93348.03064671246</v>
       </c>
       <c r="E6">
         <v>189216000</v>
@@ -1102,13 +1102,13 @@
         <v>16</v>
       </c>
       <c r="B7">
-        <v>12.92870552385354</v>
+        <v>11.29892808339415</v>
       </c>
       <c r="C7">
-        <v>176.6491069788953</v>
+        <v>178.5785572526005</v>
       </c>
       <c r="D7">
-        <v>106935.4668207404</v>
+        <v>32913.35974735782</v>
       </c>
       <c r="E7">
         <v>189216000</v>
@@ -1122,13 +1122,13 @@
         <v>17</v>
       </c>
       <c r="B8">
-        <v>141.6984613935315</v>
+        <v>123.8361196996238</v>
       </c>
       <c r="C8">
-        <v>1729.324183011368</v>
+        <v>1752.850663930286</v>
       </c>
       <c r="D8">
-        <v>1176091.093761807</v>
+        <v>364768.4084493495</v>
       </c>
       <c r="E8">
         <v>189216000</v>
@@ -1142,13 +1142,13 @@
         <v>19</v>
       </c>
       <c r="B9">
-        <v>29100.60026451261</v>
+        <v>25432.21275832142</v>
       </c>
       <c r="C9">
-        <v>1965507.518994806</v>
+        <v>2005103.666620673</v>
       </c>
       <c r="D9">
-        <v>325629860.7485458</v>
+        <v>154176927.461264</v>
       </c>
       <c r="E9">
         <v>189216000</v>
